--- a/NewLegacyBBDD/zebraont.xlsx
+++ b/NewLegacyBBDD/zebraont.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D437F56E-0506-4FA7-9EE5-1D547FAA75C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1467,7 +1468,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
@@ -1866,16 +1867,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L404"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1945,7 +1946,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1977,7 +1978,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -2009,7 +2010,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2041,7 +2042,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -2073,7 +2074,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2105,7 +2106,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2137,7 +2138,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2169,7 +2170,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -2201,7 +2202,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2233,7 +2234,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -2265,7 +2266,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -2297,7 +2298,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2329,7 +2330,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -2361,7 +2362,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -2393,7 +2394,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -2425,7 +2426,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -2457,7 +2458,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -2489,7 +2490,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -2521,7 +2522,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -2553,7 +2554,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -2585,7 +2586,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -2617,7 +2618,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -2649,7 +2650,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -2681,7 +2682,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -2713,7 +2714,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -2745,7 +2746,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -2777,7 +2778,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -2809,7 +2810,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -2841,7 +2842,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -2873,7 +2874,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -2905,7 +2906,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -2937,7 +2938,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2969,7 +2970,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -3001,7 +3002,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -3033,7 +3034,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
@@ -3065,7 +3066,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>33</v>
       </c>
@@ -3097,7 +3098,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
@@ -3129,7 +3130,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>33</v>
       </c>
@@ -3161,7 +3162,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
@@ -3193,7 +3194,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>33</v>
       </c>
@@ -3225,7 +3226,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>33</v>
       </c>
@@ -3257,7 +3258,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>33</v>
       </c>
@@ -3289,7 +3290,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>33</v>
       </c>
@@ -3321,7 +3322,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
@@ -3353,7 +3354,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>33</v>
       </c>
@@ -3385,7 +3386,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>33</v>
       </c>
@@ -3417,7 +3418,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -3449,7 +3450,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>33</v>
       </c>
@@ -3481,7 +3482,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>33</v>
       </c>
@@ -3513,7 +3514,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>12</v>
       </c>
@@ -3545,7 +3546,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
@@ -3577,7 +3578,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>91</v>
       </c>
@@ -3609,7 +3610,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>91</v>
       </c>
@@ -3641,7 +3642,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>91</v>
       </c>
@@ -3673,7 +3674,7 @@
       <c r="K56" s="6"/>
       <c r="L56" s="7"/>
     </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>33</v>
       </c>
@@ -3705,7 +3706,7 @@
       <c r="K57" s="6"/>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>33</v>
       </c>
@@ -3737,7 +3738,7 @@
       <c r="K58" s="6"/>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>33</v>
       </c>
@@ -3769,7 +3770,7 @@
       <c r="K59" s="6"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>33</v>
       </c>
@@ -3801,7 +3802,7 @@
       <c r="K60" s="6"/>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>33</v>
       </c>
@@ -3833,7 +3834,7 @@
       <c r="K61" s="6"/>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>33</v>
       </c>
@@ -3865,7 +3866,7 @@
       <c r="K62" s="6"/>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>33</v>
       </c>
@@ -3897,7 +3898,7 @@
       <c r="K63" s="6"/>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>33</v>
       </c>
@@ -3929,7 +3930,7 @@
       <c r="K64" s="6"/>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>110</v>
       </c>
@@ -3961,7 +3962,7 @@
       <c r="K65" s="6"/>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>110</v>
       </c>
@@ -3993,7 +3994,7 @@
       <c r="K66" s="6"/>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>110</v>
       </c>
@@ -4025,7 +4026,7 @@
       <c r="K67" s="6"/>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>110</v>
       </c>
@@ -4057,7 +4058,7 @@
       <c r="K68" s="6"/>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>110</v>
       </c>
@@ -4089,7 +4090,7 @@
       <c r="K69" s="6"/>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>110</v>
       </c>
@@ -4121,7 +4122,7 @@
       <c r="K70" s="6"/>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>110</v>
       </c>
@@ -4153,7 +4154,7 @@
       <c r="K71" s="6"/>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>110</v>
       </c>
@@ -4185,7 +4186,7 @@
       <c r="K72" s="6"/>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>110</v>
       </c>
@@ -4217,7 +4218,7 @@
       <c r="K73" s="6"/>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>110</v>
       </c>
@@ -4249,7 +4250,7 @@
       <c r="K74" s="6"/>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>110</v>
       </c>
@@ -4281,7 +4282,7 @@
       <c r="K75" s="6"/>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>110</v>
       </c>
@@ -4313,7 +4314,7 @@
       <c r="K76" s="6"/>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>110</v>
       </c>
@@ -4345,7 +4346,7 @@
       <c r="K77" s="6"/>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>110</v>
       </c>
@@ -4377,7 +4378,7 @@
       <c r="K78" s="6"/>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>110</v>
       </c>
@@ -4409,7 +4410,7 @@
       <c r="K79" s="6"/>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>110</v>
       </c>
@@ -4441,7 +4442,7 @@
       <c r="K80" s="6"/>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>110</v>
       </c>
@@ -4473,7 +4474,7 @@
       <c r="K81" s="6"/>
       <c r="L81" s="7"/>
     </row>
-    <row r="82" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>110</v>
       </c>
@@ -4505,7 +4506,7 @@
       <c r="K82" s="6"/>
       <c r="L82" s="7"/>
     </row>
-    <row r="83" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>110</v>
       </c>
@@ -4537,7 +4538,7 @@
       <c r="K83" s="6"/>
       <c r="L83" s="7"/>
     </row>
-    <row r="84" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>110</v>
       </c>
@@ -4569,7 +4570,7 @@
       <c r="K84" s="6"/>
       <c r="L84" s="7"/>
     </row>
-    <row r="85" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>110</v>
       </c>
@@ -4601,7 +4602,7 @@
       <c r="K85" s="6"/>
       <c r="L85" s="7"/>
     </row>
-    <row r="86" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>110</v>
       </c>
@@ -4633,7 +4634,7 @@
       <c r="K86" s="6"/>
       <c r="L86" s="7"/>
     </row>
-    <row r="87" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>110</v>
       </c>
@@ -4665,7 +4666,7 @@
       <c r="K87" s="6"/>
       <c r="L87" s="7"/>
     </row>
-    <row r="88" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>110</v>
       </c>
@@ -4697,7 +4698,7 @@
       <c r="K88" s="6"/>
       <c r="L88" s="7"/>
     </row>
-    <row r="89" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>110</v>
       </c>
@@ -4729,7 +4730,7 @@
       <c r="K89" s="6"/>
       <c r="L89" s="7"/>
     </row>
-    <row r="90" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>110</v>
       </c>
@@ -4761,7 +4762,7 @@
       <c r="K90" s="6"/>
       <c r="L90" s="7"/>
     </row>
-    <row r="91" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>110</v>
       </c>
@@ -4793,7 +4794,7 @@
       <c r="K91" s="6"/>
       <c r="L91" s="7"/>
     </row>
-    <row r="92" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>110</v>
       </c>
@@ -4825,7 +4826,7 @@
       <c r="K92" s="6"/>
       <c r="L92" s="7"/>
     </row>
-    <row r="93" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>110</v>
       </c>
@@ -4857,7 +4858,7 @@
       <c r="K93" s="6"/>
       <c r="L93" s="7"/>
     </row>
-    <row r="94" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>110</v>
       </c>
@@ -4889,7 +4890,7 @@
       <c r="K94" s="6"/>
       <c r="L94" s="7"/>
     </row>
-    <row r="95" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>110</v>
       </c>
@@ -4921,7 +4922,7 @@
       <c r="K95" s="6"/>
       <c r="L95" s="7"/>
     </row>
-    <row r="96" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>110</v>
       </c>
@@ -4953,7 +4954,7 @@
       <c r="K96" s="6"/>
       <c r="L96" s="7"/>
     </row>
-    <row r="97" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>110</v>
       </c>
@@ -4985,7 +4986,7 @@
       <c r="K97" s="6"/>
       <c r="L97" s="7"/>
     </row>
-    <row r="98" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>110</v>
       </c>
@@ -5017,7 +5018,7 @@
       <c r="K98" s="6"/>
       <c r="L98" s="7"/>
     </row>
-    <row r="99" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>110</v>
       </c>
@@ -5049,7 +5050,7 @@
       <c r="K99" s="6"/>
       <c r="L99" s="7"/>
     </row>
-    <row r="100" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>110</v>
       </c>
@@ -5081,7 +5082,7 @@
       <c r="K100" s="6"/>
       <c r="L100" s="7"/>
     </row>
-    <row r="101" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>110</v>
       </c>
@@ -5113,7 +5114,7 @@
       <c r="K101" s="6"/>
       <c r="L101" s="7"/>
     </row>
-    <row r="102" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>110</v>
       </c>
@@ -5145,7 +5146,7 @@
       <c r="K102" s="6"/>
       <c r="L102" s="7"/>
     </row>
-    <row r="103" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>110</v>
       </c>
@@ -5177,7 +5178,7 @@
       <c r="K103" s="6"/>
       <c r="L103" s="7"/>
     </row>
-    <row r="104" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>110</v>
       </c>
@@ -5209,7 +5210,7 @@
       <c r="K104" s="6"/>
       <c r="L104" s="7"/>
     </row>
-    <row r="105" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>110</v>
       </c>
@@ -5241,7 +5242,7 @@
       <c r="K105" s="6"/>
       <c r="L105" s="7"/>
     </row>
-    <row r="106" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>110</v>
       </c>
@@ -5273,7 +5274,7 @@
       <c r="K106" s="6"/>
       <c r="L106" s="7"/>
     </row>
-    <row r="107" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>110</v>
       </c>
@@ -5305,7 +5306,7 @@
       <c r="K107" s="6"/>
       <c r="L107" s="7"/>
     </row>
-    <row r="108" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>110</v>
       </c>
@@ -5337,7 +5338,7 @@
       <c r="K108" s="6"/>
       <c r="L108" s="7"/>
     </row>
-    <row r="109" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>110</v>
       </c>
@@ -5369,7 +5370,7 @@
       <c r="K109" s="6"/>
       <c r="L109" s="7"/>
     </row>
-    <row r="110" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>110</v>
       </c>
@@ -5401,7 +5402,7 @@
       <c r="K110" s="6"/>
       <c r="L110" s="7"/>
     </row>
-    <row r="111" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -5433,7 +5434,7 @@
       <c r="K111" s="6"/>
       <c r="L111" s="7"/>
     </row>
-    <row r="112" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
@@ -5465,7 +5466,7 @@
       <c r="K112" s="6"/>
       <c r="L112" s="7"/>
     </row>
-    <row r="113" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>110</v>
       </c>
@@ -5497,7 +5498,7 @@
       <c r="K113" s="6"/>
       <c r="L113" s="7"/>
     </row>
-    <row r="114" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>110</v>
       </c>
@@ -5529,7 +5530,7 @@
       <c r="K114" s="6"/>
       <c r="L114" s="7"/>
     </row>
-    <row r="115" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>110</v>
       </c>
@@ -5561,7 +5562,7 @@
       <c r="K115" s="6"/>
       <c r="L115" s="7"/>
     </row>
-    <row r="116" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>110</v>
       </c>
@@ -5593,7 +5594,7 @@
       <c r="K116" s="6"/>
       <c r="L116" s="7"/>
     </row>
-    <row r="117" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>110</v>
       </c>
@@ -5625,7 +5626,7 @@
       <c r="K117" s="6"/>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>110</v>
       </c>
@@ -5657,7 +5658,7 @@
       <c r="K118" s="6"/>
       <c r="L118" s="7"/>
     </row>
-    <row r="119" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>110</v>
       </c>
@@ -5689,7 +5690,7 @@
       <c r="K119" s="6"/>
       <c r="L119" s="7"/>
     </row>
-    <row r="120" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>110</v>
       </c>
@@ -5721,7 +5722,7 @@
       <c r="K120" s="6"/>
       <c r="L120" s="7"/>
     </row>
-    <row r="121" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>110</v>
       </c>
@@ -5753,7 +5754,7 @@
       <c r="K121" s="6"/>
       <c r="L121" s="7"/>
     </row>
-    <row r="122" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>110</v>
       </c>
@@ -5785,7 +5786,7 @@
       <c r="K122" s="6"/>
       <c r="L122" s="7"/>
     </row>
-    <row r="123" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>110</v>
       </c>
@@ -5817,7 +5818,7 @@
       <c r="K123" s="6"/>
       <c r="L123" s="7"/>
     </row>
-    <row r="124" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>110</v>
       </c>
@@ -5849,7 +5850,7 @@
       <c r="K124" s="6"/>
       <c r="L124" s="7"/>
     </row>
-    <row r="125" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>110</v>
       </c>
@@ -5881,7 +5882,7 @@
       <c r="K125" s="6"/>
       <c r="L125" s="7"/>
     </row>
-    <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>12</v>
       </c>
@@ -5913,7 +5914,7 @@
       <c r="K126" s="6"/>
       <c r="L126" s="7"/>
     </row>
-    <row r="127" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>12</v>
       </c>
@@ -5945,7 +5946,7 @@
       <c r="K127" s="6"/>
       <c r="L127" s="7"/>
     </row>
-    <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>12</v>
       </c>
@@ -5977,7 +5978,7 @@
       <c r="K128" s="6"/>
       <c r="L128" s="7"/>
     </row>
-    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>12</v>
       </c>
@@ -6009,7 +6010,7 @@
       <c r="K129" s="6"/>
       <c r="L129" s="7"/>
     </row>
-    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>12</v>
       </c>
@@ -6041,7 +6042,7 @@
       <c r="K130" s="6"/>
       <c r="L130" s="7"/>
     </row>
-    <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>12</v>
       </c>
@@ -6073,7 +6074,7 @@
       <c r="K131" s="6"/>
       <c r="L131" s="7"/>
     </row>
-    <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>12</v>
       </c>
@@ -6105,7 +6106,7 @@
       <c r="K132" s="6"/>
       <c r="L132" s="7"/>
     </row>
-    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>12</v>
       </c>
@@ -6137,7 +6138,7 @@
       <c r="K133" s="6"/>
       <c r="L133" s="7"/>
     </row>
-    <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>12</v>
       </c>
@@ -6169,7 +6170,7 @@
       <c r="K134" s="6"/>
       <c r="L134" s="7"/>
     </row>
-    <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>12</v>
       </c>
@@ -6201,7 +6202,7 @@
       <c r="K135" s="6"/>
       <c r="L135" s="7"/>
     </row>
-    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>12</v>
       </c>
@@ -6233,7 +6234,7 @@
       <c r="K136" s="6"/>
       <c r="L136" s="7"/>
     </row>
-    <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>12</v>
       </c>
@@ -6265,7 +6266,7 @@
       <c r="K137" s="6"/>
       <c r="L137" s="7"/>
     </row>
-    <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>12</v>
       </c>
@@ -6297,7 +6298,7 @@
       <c r="K138" s="6"/>
       <c r="L138" s="7"/>
     </row>
-    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>12</v>
       </c>
@@ -6329,7 +6330,7 @@
       <c r="K139" s="6"/>
       <c r="L139" s="7"/>
     </row>
-    <row r="140" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>12</v>
       </c>
@@ -6361,7 +6362,7 @@
       <c r="K140" s="6"/>
       <c r="L140" s="7"/>
     </row>
-    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>12</v>
       </c>
@@ -6393,7 +6394,7 @@
       <c r="K141" s="6"/>
       <c r="L141" s="7"/>
     </row>
-    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>12</v>
       </c>
@@ -6425,7 +6426,7 @@
       <c r="K142" s="6"/>
       <c r="L142" s="7"/>
     </row>
-    <row r="143" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>12</v>
       </c>
@@ -6457,7 +6458,7 @@
       <c r="K143" s="6"/>
       <c r="L143" s="7"/>
     </row>
-    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>12</v>
       </c>
@@ -6489,7 +6490,7 @@
       <c r="K144" s="6"/>
       <c r="L144" s="7"/>
     </row>
-    <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>12</v>
       </c>
@@ -6521,7 +6522,7 @@
       <c r="K145" s="6"/>
       <c r="L145" s="7"/>
     </row>
-    <row r="146" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>12</v>
       </c>
@@ -6553,7 +6554,7 @@
       <c r="K146" s="6"/>
       <c r="L146" s="7"/>
     </row>
-    <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>12</v>
       </c>
@@ -6585,7 +6586,7 @@
       <c r="K147" s="6"/>
       <c r="L147" s="7"/>
     </row>
-    <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>12</v>
       </c>
@@ -6617,7 +6618,7 @@
       <c r="K148" s="6"/>
       <c r="L148" s="7"/>
     </row>
-    <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>12</v>
       </c>
@@ -6649,7 +6650,7 @@
       <c r="K149" s="6"/>
       <c r="L149" s="7"/>
     </row>
-    <row r="150" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>12</v>
       </c>
@@ -6681,7 +6682,7 @@
       <c r="K150" s="6"/>
       <c r="L150" s="7"/>
     </row>
-    <row r="151" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>201</v>
       </c>
@@ -6713,7 +6714,7 @@
       <c r="K151" s="6"/>
       <c r="L151" s="7"/>
     </row>
-    <row r="152" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>201</v>
       </c>
@@ -6745,7 +6746,7 @@
       <c r="K152" s="6"/>
       <c r="L152" s="7"/>
     </row>
-    <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>12</v>
       </c>
@@ -6777,7 +6778,7 @@
       <c r="K153" s="6"/>
       <c r="L153" s="7"/>
     </row>
-    <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>12</v>
       </c>
@@ -6809,7 +6810,7 @@
       <c r="K154" s="6"/>
       <c r="L154" s="7"/>
     </row>
-    <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>12</v>
       </c>
@@ -6841,7 +6842,7 @@
       <c r="K155" s="6"/>
       <c r="L155" s="7"/>
     </row>
-    <row r="156" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>12</v>
       </c>
@@ -6873,7 +6874,7 @@
       <c r="K156" s="6"/>
       <c r="L156" s="7"/>
     </row>
-    <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>12</v>
       </c>
@@ -6905,7 +6906,7 @@
       <c r="K157" s="6"/>
       <c r="L157" s="7"/>
     </row>
-    <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>12</v>
       </c>
@@ -6937,7 +6938,7 @@
       <c r="K158" s="6"/>
       <c r="L158" s="7"/>
     </row>
-    <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>213</v>
       </c>
@@ -6969,7 +6970,7 @@
       <c r="K159" s="6"/>
       <c r="L159" s="7"/>
     </row>
-    <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>213</v>
       </c>
@@ -7001,7 +7002,7 @@
       <c r="K160" s="6"/>
       <c r="L160" s="7"/>
     </row>
-    <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>12</v>
       </c>
@@ -7033,7 +7034,7 @@
       <c r="K161" s="6"/>
       <c r="L161" s="7"/>
     </row>
-    <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>12</v>
       </c>
@@ -7065,7 +7066,7 @@
       <c r="K162" s="6"/>
       <c r="L162" s="7"/>
     </row>
-    <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>12</v>
       </c>
@@ -7097,7 +7098,7 @@
       <c r="K163" s="6"/>
       <c r="L163" s="7"/>
     </row>
-    <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>12</v>
       </c>
@@ -7129,7 +7130,7 @@
       <c r="K164" s="6"/>
       <c r="L164" s="7"/>
     </row>
-    <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>12</v>
       </c>
@@ -7161,7 +7162,7 @@
       <c r="K165" s="6"/>
       <c r="L165" s="7"/>
     </row>
-    <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>12</v>
       </c>
@@ -7193,7 +7194,7 @@
       <c r="K166" s="6"/>
       <c r="L166" s="7"/>
     </row>
-    <row r="167" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>12</v>
       </c>
@@ -7225,7 +7226,7 @@
       <c r="K167" s="6"/>
       <c r="L167" s="7"/>
     </row>
-    <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>12</v>
       </c>
@@ -7257,7 +7258,7 @@
       <c r="K168" s="6"/>
       <c r="L168" s="7"/>
     </row>
-    <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>12</v>
       </c>
@@ -7289,7 +7290,7 @@
       <c r="K169" s="6"/>
       <c r="L169" s="7"/>
     </row>
-    <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>12</v>
       </c>
@@ -7321,7 +7322,7 @@
       <c r="K170" s="6"/>
       <c r="L170" s="7"/>
     </row>
-    <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>12</v>
       </c>
@@ -7353,7 +7354,7 @@
       <c r="K171" s="6"/>
       <c r="L171" s="7"/>
     </row>
-    <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>12</v>
       </c>
@@ -7385,7 +7386,7 @@
       <c r="K172" s="6"/>
       <c r="L172" s="7"/>
     </row>
-    <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>12</v>
       </c>
@@ -7417,7 +7418,7 @@
       <c r="K173" s="6"/>
       <c r="L173" s="7"/>
     </row>
-    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>12</v>
       </c>
@@ -7449,7 +7450,7 @@
       <c r="K174" s="6"/>
       <c r="L174" s="7"/>
     </row>
-    <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>12</v>
       </c>
@@ -7481,7 +7482,7 @@
       <c r="K175" s="6"/>
       <c r="L175" s="7"/>
     </row>
-    <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>12</v>
       </c>
@@ -7513,7 +7514,7 @@
       <c r="K176" s="6"/>
       <c r="L176" s="7"/>
     </row>
-    <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>12</v>
       </c>
@@ -7545,7 +7546,7 @@
       <c r="K177" s="6"/>
       <c r="L177" s="7"/>
     </row>
-    <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>12</v>
       </c>
@@ -7577,7 +7578,7 @@
       <c r="K178" s="6"/>
       <c r="L178" s="7"/>
     </row>
-    <row r="179" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>12</v>
       </c>
@@ -7609,7 +7610,7 @@
       <c r="K179" s="6"/>
       <c r="L179" s="7"/>
     </row>
-    <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>12</v>
       </c>
@@ -7641,7 +7642,7 @@
       <c r="K180" s="6"/>
       <c r="L180" s="7"/>
     </row>
-    <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>12</v>
       </c>
@@ -7673,7 +7674,7 @@
       <c r="K181" s="6"/>
       <c r="L181" s="7"/>
     </row>
-    <row r="182" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>12</v>
       </c>
@@ -7705,7 +7706,7 @@
       <c r="K182" s="6"/>
       <c r="L182" s="7"/>
     </row>
-    <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>12</v>
       </c>
@@ -7737,7 +7738,7 @@
       <c r="K183" s="6"/>
       <c r="L183" s="7"/>
     </row>
-    <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>12</v>
       </c>
@@ -7769,7 +7770,7 @@
       <c r="K184" s="6"/>
       <c r="L184" s="7"/>
     </row>
-    <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>12</v>
       </c>
@@ -7801,7 +7802,7 @@
       <c r="K185" s="6"/>
       <c r="L185" s="7"/>
     </row>
-    <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>12</v>
       </c>
@@ -7833,7 +7834,7 @@
       <c r="K186" s="6"/>
       <c r="L186" s="7"/>
     </row>
-    <row r="187" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>12</v>
       </c>
@@ -7865,7 +7866,7 @@
       <c r="K187" s="6"/>
       <c r="L187" s="7"/>
     </row>
-    <row r="188" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>12</v>
       </c>
@@ -7897,7 +7898,7 @@
       <c r="K188" s="6"/>
       <c r="L188" s="7"/>
     </row>
-    <row r="189" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>12</v>
       </c>
@@ -7929,7 +7930,7 @@
       <c r="K189" s="6"/>
       <c r="L189" s="7"/>
     </row>
-    <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>12</v>
       </c>
@@ -7961,7 +7962,7 @@
       <c r="K190" s="6"/>
       <c r="L190" s="7"/>
     </row>
-    <row r="191" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>12</v>
       </c>
@@ -7993,7 +7994,7 @@
       <c r="K191" s="6"/>
       <c r="L191" s="7"/>
     </row>
-    <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>12</v>
       </c>
@@ -8025,7 +8026,7 @@
       <c r="K192" s="6"/>
       <c r="L192" s="7"/>
     </row>
-    <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>12</v>
       </c>
@@ -8057,7 +8058,7 @@
       <c r="K193" s="6"/>
       <c r="L193" s="7"/>
     </row>
-    <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>12</v>
       </c>
@@ -8089,7 +8090,7 @@
       <c r="K194" s="6"/>
       <c r="L194" s="7"/>
     </row>
-    <row r="195" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>12</v>
       </c>
@@ -8121,7 +8122,7 @@
       <c r="K195" s="6"/>
       <c r="L195" s="7"/>
     </row>
-    <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>12</v>
       </c>
@@ -8153,7 +8154,7 @@
       <c r="K196" s="6"/>
       <c r="L196" s="7"/>
     </row>
-    <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>12</v>
       </c>
@@ -8185,7 +8186,7 @@
       <c r="K197" s="6"/>
       <c r="L197" s="7"/>
     </row>
-    <row r="198" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>12</v>
       </c>
@@ -8217,7 +8218,7 @@
       <c r="K198" s="6"/>
       <c r="L198" s="7"/>
     </row>
-    <row r="199" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>12</v>
       </c>
@@ -8249,7 +8250,7 @@
       <c r="K199" s="6"/>
       <c r="L199" s="7"/>
     </row>
-    <row r="200" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>12</v>
       </c>
@@ -8281,7 +8282,7 @@
       <c r="K200" s="6"/>
       <c r="L200" s="7"/>
     </row>
-    <row r="201" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>12</v>
       </c>
@@ -8313,7 +8314,7 @@
       <c r="K201" s="6"/>
       <c r="L201" s="7"/>
     </row>
-    <row r="202" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>12</v>
       </c>
@@ -8345,7 +8346,7 @@
       <c r="K202" s="6"/>
       <c r="L202" s="7"/>
     </row>
-    <row r="203" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>12</v>
       </c>
@@ -8377,7 +8378,7 @@
       <c r="K203" s="6"/>
       <c r="L203" s="7"/>
     </row>
-    <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>12</v>
       </c>
@@ -8409,7 +8410,7 @@
       <c r="K204" s="6"/>
       <c r="L204" s="7"/>
     </row>
-    <row r="205" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>12</v>
       </c>
@@ -8441,7 +8442,7 @@
       <c r="K205" s="6"/>
       <c r="L205" s="7"/>
     </row>
-    <row r="206" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>12</v>
       </c>
@@ -8473,7 +8474,7 @@
       <c r="K206" s="6"/>
       <c r="L206" s="7"/>
     </row>
-    <row r="207" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>12</v>
       </c>
@@ -8505,7 +8506,7 @@
       <c r="K207" s="6"/>
       <c r="L207" s="7"/>
     </row>
-    <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>12</v>
       </c>
@@ -8537,7 +8538,7 @@
       <c r="K208" s="6"/>
       <c r="L208" s="7"/>
     </row>
-    <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>12</v>
       </c>
@@ -8569,7 +8570,7 @@
       <c r="K209" s="6"/>
       <c r="L209" s="7"/>
     </row>
-    <row r="210" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>12</v>
       </c>
@@ -8601,7 +8602,7 @@
       <c r="K210" s="6"/>
       <c r="L210" s="7"/>
     </row>
-    <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>12</v>
       </c>
@@ -8633,7 +8634,7 @@
       <c r="K211" s="6"/>
       <c r="L211" s="7"/>
     </row>
-    <row r="212" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>12</v>
       </c>
@@ -8665,7 +8666,7 @@
       <c r="K212" s="6"/>
       <c r="L212" s="7"/>
     </row>
-    <row r="213" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>12</v>
       </c>
@@ -8697,7 +8698,7 @@
       <c r="K213" s="6"/>
       <c r="L213" s="7"/>
     </row>
-    <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>12</v>
       </c>
@@ -8729,7 +8730,7 @@
       <c r="K214" s="6"/>
       <c r="L214" s="7"/>
     </row>
-    <row r="215" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>12</v>
       </c>
@@ -8761,7 +8762,7 @@
       <c r="K215" s="6"/>
       <c r="L215" s="7"/>
     </row>
-    <row r="216" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>12</v>
       </c>
@@ -8793,7 +8794,7 @@
       <c r="K216" s="6"/>
       <c r="L216" s="7"/>
     </row>
-    <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>12</v>
       </c>
@@ -8825,7 +8826,7 @@
       <c r="K217" s="6"/>
       <c r="L217" s="7"/>
     </row>
-    <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>12</v>
       </c>
@@ -8857,7 +8858,7 @@
       <c r="K218" s="6"/>
       <c r="L218" s="7"/>
     </row>
-    <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>12</v>
       </c>
@@ -8889,7 +8890,7 @@
       <c r="K219" s="6"/>
       <c r="L219" s="7"/>
     </row>
-    <row r="220" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>12</v>
       </c>
@@ -8921,7 +8922,7 @@
       <c r="K220" s="6"/>
       <c r="L220" s="7"/>
     </row>
-    <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>12</v>
       </c>
@@ -8953,7 +8954,7 @@
       <c r="K221" s="6"/>
       <c r="L221" s="7"/>
     </row>
-    <row r="222" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>12</v>
       </c>
@@ -8985,7 +8986,7 @@
       <c r="K222" s="6"/>
       <c r="L222" s="7"/>
     </row>
-    <row r="223" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>12</v>
       </c>
@@ -9017,7 +9018,7 @@
       <c r="K223" s="6"/>
       <c r="L223" s="7"/>
     </row>
-    <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>12</v>
       </c>
@@ -9049,7 +9050,7 @@
       <c r="K224" s="6"/>
       <c r="L224" s="7"/>
     </row>
-    <row r="225" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>12</v>
       </c>
@@ -9081,7 +9082,7 @@
       <c r="K225" s="6"/>
       <c r="L225" s="7"/>
     </row>
-    <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>12</v>
       </c>
@@ -9113,7 +9114,7 @@
       <c r="K226" s="6"/>
       <c r="L226" s="7"/>
     </row>
-    <row r="227" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>12</v>
       </c>
@@ -9145,7 +9146,7 @@
       <c r="K227" s="6"/>
       <c r="L227" s="7"/>
     </row>
-    <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>12</v>
       </c>
@@ -9177,7 +9178,7 @@
       <c r="K228" s="6"/>
       <c r="L228" s="7"/>
     </row>
-    <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>12</v>
       </c>
@@ -9209,7 +9210,7 @@
       <c r="K229" s="6"/>
       <c r="L229" s="7"/>
     </row>
-    <row r="230" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>12</v>
       </c>
@@ -9241,7 +9242,7 @@
       <c r="K230" s="6"/>
       <c r="L230" s="7"/>
     </row>
-    <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>12</v>
       </c>
@@ -9273,7 +9274,7 @@
       <c r="K231" s="6"/>
       <c r="L231" s="7"/>
     </row>
-    <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>12</v>
       </c>
@@ -9305,7 +9306,7 @@
       <c r="K232" s="6"/>
       <c r="L232" s="7"/>
     </row>
-    <row r="233" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>12</v>
       </c>
@@ -9337,7 +9338,7 @@
       <c r="K233" s="6"/>
       <c r="L233" s="7"/>
     </row>
-    <row r="234" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>12</v>
       </c>
@@ -9369,7 +9370,7 @@
       <c r="K234" s="6"/>
       <c r="L234" s="7"/>
     </row>
-    <row r="235" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>12</v>
       </c>
@@ -9401,7 +9402,7 @@
       <c r="K235" s="6"/>
       <c r="L235" s="7"/>
     </row>
-    <row r="236" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>12</v>
       </c>
@@ -9433,7 +9434,7 @@
       <c r="K236" s="6"/>
       <c r="L236" s="7"/>
     </row>
-    <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>12</v>
       </c>
@@ -9465,7 +9466,7 @@
       <c r="K237" s="6"/>
       <c r="L237" s="7"/>
     </row>
-    <row r="238" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>12</v>
       </c>
@@ -9497,7 +9498,7 @@
       <c r="K238" s="6"/>
       <c r="L238" s="7"/>
     </row>
-    <row r="239" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>12</v>
       </c>
@@ -9529,7 +9530,7 @@
       <c r="K239" s="6"/>
       <c r="L239" s="7"/>
     </row>
-    <row r="240" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>12</v>
       </c>
@@ -9561,7 +9562,7 @@
       <c r="K240" s="6"/>
       <c r="L240" s="7"/>
     </row>
-    <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>12</v>
       </c>
@@ -9593,7 +9594,7 @@
       <c r="K241" s="6"/>
       <c r="L241" s="7"/>
     </row>
-    <row r="242" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>12</v>
       </c>
@@ -9625,7 +9626,7 @@
       <c r="K242" s="6"/>
       <c r="L242" s="7"/>
     </row>
-    <row r="243" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>12</v>
       </c>
@@ -9657,7 +9658,7 @@
       <c r="K243" s="6"/>
       <c r="L243" s="7"/>
     </row>
-    <row r="244" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>12</v>
       </c>
@@ -9689,7 +9690,7 @@
       <c r="K244" s="6"/>
       <c r="L244" s="7"/>
     </row>
-    <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>12</v>
       </c>
@@ -9721,7 +9722,7 @@
       <c r="K245" s="6"/>
       <c r="L245" s="7"/>
     </row>
-    <row r="246" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>12</v>
       </c>
@@ -9753,7 +9754,7 @@
       <c r="K246" s="6"/>
       <c r="L246" s="7"/>
     </row>
-    <row r="247" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>12</v>
       </c>
@@ -9785,7 +9786,7 @@
       <c r="K247" s="6"/>
       <c r="L247" s="7"/>
     </row>
-    <row r="248" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>12</v>
       </c>
@@ -9817,7 +9818,7 @@
       <c r="K248" s="6"/>
       <c r="L248" s="7"/>
     </row>
-    <row r="249" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>12</v>
       </c>
@@ -9849,7 +9850,7 @@
       <c r="K249" s="6"/>
       <c r="L249" s="7"/>
     </row>
-    <row r="250" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>12</v>
       </c>
@@ -9881,7 +9882,7 @@
       <c r="K250" s="6"/>
       <c r="L250" s="7"/>
     </row>
-    <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>12</v>
       </c>
@@ -9913,7 +9914,7 @@
       <c r="K251" s="6"/>
       <c r="L251" s="7"/>
     </row>
-    <row r="252" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>12</v>
       </c>
@@ -9945,7 +9946,7 @@
       <c r="K252" s="6"/>
       <c r="L252" s="7"/>
     </row>
-    <row r="253" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>12</v>
       </c>
@@ -9977,7 +9978,7 @@
       <c r="K253" s="6"/>
       <c r="L253" s="7"/>
     </row>
-    <row r="254" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>12</v>
       </c>
@@ -10009,7 +10010,7 @@
       <c r="K254" s="6"/>
       <c r="L254" s="7"/>
     </row>
-    <row r="255" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>12</v>
       </c>
@@ -10041,7 +10042,7 @@
       <c r="K255" s="6"/>
       <c r="L255" s="7"/>
     </row>
-    <row r="256" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>12</v>
       </c>
@@ -10073,7 +10074,7 @@
       <c r="K256" s="6"/>
       <c r="L256" s="7"/>
     </row>
-    <row r="257" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>12</v>
       </c>
@@ -10105,7 +10106,7 @@
       <c r="K257" s="6"/>
       <c r="L257" s="7"/>
     </row>
-    <row r="258" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>12</v>
       </c>
@@ -10137,7 +10138,7 @@
       <c r="K258" s="6"/>
       <c r="L258" s="7"/>
     </row>
-    <row r="259" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>12</v>
       </c>
@@ -10169,7 +10170,7 @@
       <c r="K259" s="6"/>
       <c r="L259" s="7"/>
     </row>
-    <row r="260" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>12</v>
       </c>
@@ -10201,7 +10202,7 @@
       <c r="K260" s="6"/>
       <c r="L260" s="7"/>
     </row>
-    <row r="261" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>12</v>
       </c>
@@ -10233,7 +10234,7 @@
       <c r="K261" s="6"/>
       <c r="L261" s="7"/>
     </row>
-    <row r="262" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>12</v>
       </c>
@@ -10265,7 +10266,7 @@
       <c r="K262" s="6"/>
       <c r="L262" s="7"/>
     </row>
-    <row r="263" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>12</v>
       </c>
@@ -10297,7 +10298,7 @@
       <c r="K263" s="6"/>
       <c r="L263" s="7"/>
     </row>
-    <row r="264" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>12</v>
       </c>
@@ -10329,7 +10330,7 @@
       <c r="K264" s="6"/>
       <c r="L264" s="7"/>
     </row>
-    <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>91</v>
       </c>
@@ -10361,7 +10362,7 @@
       <c r="K265" s="6"/>
       <c r="L265" s="7"/>
     </row>
-    <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>91</v>
       </c>
@@ -10393,7 +10394,7 @@
       <c r="K266" s="6"/>
       <c r="L266" s="7"/>
     </row>
-    <row r="267" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>22</v>
       </c>
@@ -10425,7 +10426,7 @@
       <c r="K267" s="6"/>
       <c r="L267" s="7"/>
     </row>
-    <row r="268" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>22</v>
       </c>
@@ -10457,7 +10458,7 @@
       <c r="K268" s="6"/>
       <c r="L268" s="7"/>
     </row>
-    <row r="269" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>22</v>
       </c>
@@ -10489,7 +10490,7 @@
       <c r="K269" s="6"/>
       <c r="L269" s="7"/>
     </row>
-    <row r="270" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>22</v>
       </c>
@@ -10521,7 +10522,7 @@
       <c r="K270" s="6"/>
       <c r="L270" s="7"/>
     </row>
-    <row r="271" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>22</v>
       </c>
@@ -10553,7 +10554,7 @@
       <c r="K271" s="6"/>
       <c r="L271" s="7"/>
     </row>
-    <row r="272" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>22</v>
       </c>
@@ -10585,7 +10586,7 @@
       <c r="K272" s="6"/>
       <c r="L272" s="7"/>
     </row>
-    <row r="273" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>33</v>
       </c>
@@ -10617,7 +10618,7 @@
       <c r="K273" s="6"/>
       <c r="L273" s="2"/>
     </row>
-    <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>33</v>
       </c>
@@ -10649,7 +10650,7 @@
       <c r="K274" s="6"/>
       <c r="L274" s="2"/>
     </row>
-    <row r="275" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>33</v>
       </c>
@@ -10681,7 +10682,7 @@
       <c r="K275" s="6"/>
       <c r="L275" s="2"/>
     </row>
-    <row r="276" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>33</v>
       </c>
@@ -10713,7 +10714,7 @@
       <c r="K276" s="6"/>
       <c r="L276" s="2"/>
     </row>
-    <row r="277" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>33</v>
       </c>
@@ -10745,7 +10746,7 @@
       <c r="K277" s="6"/>
       <c r="L277" s="2"/>
     </row>
-    <row r="278" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>33</v>
       </c>
@@ -10777,7 +10778,7 @@
       <c r="K278" s="6"/>
       <c r="L278" s="2"/>
     </row>
-    <row r="279" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>33</v>
       </c>
@@ -10809,7 +10810,7 @@
       <c r="K279" s="6"/>
       <c r="L279" s="2"/>
     </row>
-    <row r="280" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>33</v>
       </c>
@@ -10841,7 +10842,7 @@
       <c r="K280" s="6"/>
       <c r="L280" s="2"/>
     </row>
-    <row r="281" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>33</v>
       </c>
@@ -10873,7 +10874,7 @@
       <c r="K281" s="6"/>
       <c r="L281" s="2"/>
     </row>
-    <row r="282" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>33</v>
       </c>
@@ -10905,7 +10906,7 @@
       <c r="K282" s="6"/>
       <c r="L282" s="2"/>
     </row>
-    <row r="283" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>33</v>
       </c>
@@ -10937,7 +10938,7 @@
       <c r="K283" s="6"/>
       <c r="L283" s="2"/>
     </row>
-    <row r="284" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>33</v>
       </c>
@@ -10969,7 +10970,7 @@
       <c r="K284" s="6"/>
       <c r="L284" s="2"/>
     </row>
-    <row r="285" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>33</v>
       </c>
@@ -11001,7 +11002,7 @@
       <c r="K285" s="6"/>
       <c r="L285" s="2"/>
     </row>
-    <row r="286" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>110</v>
       </c>
@@ -11033,7 +11034,7 @@
       <c r="K286" s="6"/>
       <c r="L286" s="7"/>
     </row>
-    <row r="287" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>110</v>
       </c>
@@ -11065,7 +11066,7 @@
       <c r="K287" s="6"/>
       <c r="L287" s="7"/>
     </row>
-    <row r="288" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>110</v>
       </c>
@@ -11097,7 +11098,7 @@
       <c r="K288" s="6"/>
       <c r="L288" s="7"/>
     </row>
-    <row r="289" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>110</v>
       </c>
@@ -11129,7 +11130,7 @@
       <c r="K289" s="6"/>
       <c r="L289" s="7"/>
     </row>
-    <row r="290" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>110</v>
       </c>
@@ -11161,7 +11162,7 @@
       <c r="K290" s="6"/>
       <c r="L290" s="7"/>
     </row>
-    <row r="291" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>110</v>
       </c>
@@ -11193,7 +11194,7 @@
       <c r="K291" s="6"/>
       <c r="L291" s="7"/>
     </row>
-    <row r="292" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>110</v>
       </c>
@@ -11225,7 +11226,7 @@
       <c r="K292" s="6"/>
       <c r="L292" s="7"/>
     </row>
-    <row r="293" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>110</v>
       </c>
@@ -11257,7 +11258,7 @@
       <c r="K293" s="6"/>
       <c r="L293" s="7"/>
     </row>
-    <row r="294" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>110</v>
       </c>
@@ -11289,7 +11290,7 @@
       <c r="K294" s="6"/>
       <c r="L294" s="7"/>
     </row>
-    <row r="295" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>110</v>
       </c>
@@ -11321,7 +11322,7 @@
       <c r="K295" s="6"/>
       <c r="L295" s="7"/>
     </row>
-    <row r="296" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>110</v>
       </c>
@@ -11353,7 +11354,7 @@
       <c r="K296" s="6"/>
       <c r="L296" s="7"/>
     </row>
-    <row r="297" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>110</v>
       </c>
@@ -11385,7 +11386,7 @@
       <c r="K297" s="6"/>
       <c r="L297" s="7"/>
     </row>
-    <row r="298" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>110</v>
       </c>
@@ -11417,7 +11418,7 @@
       <c r="K298" s="6"/>
       <c r="L298" s="7"/>
     </row>
-    <row r="299" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>110</v>
       </c>
@@ -11449,7 +11450,7 @@
       <c r="K299" s="6"/>
       <c r="L299" s="7"/>
     </row>
-    <row r="300" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>110</v>
       </c>
@@ -11481,7 +11482,7 @@
       <c r="K300" s="6"/>
       <c r="L300" s="7"/>
     </row>
-    <row r="301" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>110</v>
       </c>
@@ -11513,7 +11514,7 @@
       <c r="K301" s="6"/>
       <c r="L301" s="7"/>
     </row>
-    <row r="302" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>110</v>
       </c>
@@ -11545,7 +11546,7 @@
       <c r="K302" s="6"/>
       <c r="L302" s="7"/>
     </row>
-    <row r="303" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>110</v>
       </c>
@@ -11577,7 +11578,7 @@
       <c r="K303" s="6"/>
       <c r="L303" s="7"/>
     </row>
-    <row r="304" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>110</v>
       </c>
@@ -11609,7 +11610,7 @@
       <c r="K304" s="6"/>
       <c r="L304" s="7"/>
     </row>
-    <row r="305" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>110</v>
       </c>
@@ -11641,7 +11642,7 @@
       <c r="K305" s="6"/>
       <c r="L305" s="7"/>
     </row>
-    <row r="306" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>110</v>
       </c>
@@ -11673,7 +11674,7 @@
       <c r="K306" s="6"/>
       <c r="L306" s="7"/>
     </row>
-    <row r="307" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>110</v>
       </c>
@@ -11705,7 +11706,7 @@
       <c r="K307" s="6"/>
       <c r="L307" s="7"/>
     </row>
-    <row r="308" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>110</v>
       </c>
@@ -11737,7 +11738,7 @@
       <c r="K308" s="6"/>
       <c r="L308" s="7"/>
     </row>
-    <row r="309" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>110</v>
       </c>
@@ -11769,7 +11770,7 @@
       <c r="K309" s="6"/>
       <c r="L309" s="7"/>
     </row>
-    <row r="310" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>110</v>
       </c>
@@ -11801,7 +11802,7 @@
       <c r="K310" s="6"/>
       <c r="L310" s="7"/>
     </row>
-    <row r="311" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>12</v>
       </c>
@@ -11833,7 +11834,7 @@
       <c r="K311" s="6"/>
       <c r="L311" s="7"/>
     </row>
-    <row r="312" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>12</v>
       </c>
@@ -11865,7 +11866,7 @@
       <c r="K312" s="6"/>
       <c r="L312" s="7"/>
     </row>
-    <row r="313" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>12</v>
       </c>
@@ -11897,7 +11898,7 @@
       <c r="K313" s="6"/>
       <c r="L313" s="7"/>
     </row>
-    <row r="314" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>12</v>
       </c>
@@ -11929,7 +11930,7 @@
       <c r="K314" s="6"/>
       <c r="L314" s="7"/>
     </row>
-    <row r="315" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>12</v>
       </c>
@@ -11961,7 +11962,7 @@
       <c r="K315" s="6"/>
       <c r="L315" s="7"/>
     </row>
-    <row r="316" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>12</v>
       </c>
@@ -11993,7 +11994,7 @@
       <c r="K316" s="6"/>
       <c r="L316" s="7"/>
     </row>
-    <row r="317" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>12</v>
       </c>
@@ -12025,7 +12026,7 @@
       <c r="K317" s="6"/>
       <c r="L317" s="7"/>
     </row>
-    <row r="318" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>12</v>
       </c>
@@ -12057,7 +12058,7 @@
       <c r="K318" s="6"/>
       <c r="L318" s="7"/>
     </row>
-    <row r="319" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>12</v>
       </c>
@@ -12089,7 +12090,7 @@
       <c r="K319" s="6"/>
       <c r="L319" s="7"/>
     </row>
-    <row r="320" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>12</v>
       </c>
@@ -12121,7 +12122,7 @@
       <c r="K320" s="6"/>
       <c r="L320" s="7"/>
     </row>
-    <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>12</v>
       </c>
@@ -12153,7 +12154,7 @@
       <c r="K321" s="6"/>
       <c r="L321" s="7"/>
     </row>
-    <row r="322" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>12</v>
       </c>
@@ -12185,7 +12186,7 @@
       <c r="K322" s="6"/>
       <c r="L322" s="7"/>
     </row>
-    <row r="323" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>12</v>
       </c>
@@ -12217,7 +12218,7 @@
       <c r="K323" s="6"/>
       <c r="L323" s="7"/>
     </row>
-    <row r="324" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>12</v>
       </c>
@@ -12249,7 +12250,7 @@
       <c r="K324" s="6"/>
       <c r="L324" s="7"/>
     </row>
-    <row r="325" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>12</v>
       </c>
@@ -12281,7 +12282,7 @@
       <c r="K325" s="6"/>
       <c r="L325" s="7"/>
     </row>
-    <row r="326" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>12</v>
       </c>
@@ -12313,7 +12314,7 @@
       <c r="K326" s="6"/>
       <c r="L326" s="7"/>
     </row>
-    <row r="327" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>12</v>
       </c>
@@ -12345,7 +12346,7 @@
       <c r="K327" s="6"/>
       <c r="L327" s="7"/>
     </row>
-    <row r="328" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>12</v>
       </c>
@@ -12377,7 +12378,7 @@
       <c r="K328" s="6"/>
       <c r="L328" s="7"/>
     </row>
-    <row r="329" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>12</v>
       </c>
@@ -12409,7 +12410,7 @@
       <c r="K329" s="6"/>
       <c r="L329" s="7"/>
     </row>
-    <row r="330" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>12</v>
       </c>
@@ -12441,7 +12442,7 @@
       <c r="K330" s="6"/>
       <c r="L330" s="7"/>
     </row>
-    <row r="331" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>12</v>
       </c>
@@ -12473,7 +12474,7 @@
       <c r="K331" s="6"/>
       <c r="L331" s="7"/>
     </row>
-    <row r="332" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>12</v>
       </c>
@@ -12505,7 +12506,7 @@
       <c r="K332" s="6"/>
       <c r="L332" s="7"/>
     </row>
-    <row r="333" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>12</v>
       </c>
@@ -12537,7 +12538,7 @@
       <c r="K333" s="6"/>
       <c r="L333" s="7"/>
     </row>
-    <row r="334" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>12</v>
       </c>
@@ -12569,7 +12570,7 @@
       <c r="K334" s="6"/>
       <c r="L334" s="7"/>
     </row>
-    <row r="335" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>12</v>
       </c>
@@ -12601,7 +12602,7 @@
       <c r="K335" s="6"/>
       <c r="L335" s="7"/>
     </row>
-    <row r="336" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>12</v>
       </c>
@@ -12633,7 +12634,7 @@
       <c r="K336" s="6"/>
       <c r="L336" s="7"/>
     </row>
-    <row r="337" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>12</v>
       </c>
@@ -12665,7 +12666,7 @@
       <c r="K337" s="6"/>
       <c r="L337" s="7"/>
     </row>
-    <row r="338" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>12</v>
       </c>
@@ -12697,7 +12698,7 @@
       <c r="K338" s="6"/>
       <c r="L338" s="7"/>
     </row>
-    <row r="339" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>12</v>
       </c>
@@ -12729,7 +12730,7 @@
       <c r="K339" s="6"/>
       <c r="L339" s="7"/>
     </row>
-    <row r="340" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>12</v>
       </c>
@@ -12761,7 +12762,7 @@
       <c r="K340" s="6"/>
       <c r="L340" s="7"/>
     </row>
-    <row r="341" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>12</v>
       </c>
@@ -12793,7 +12794,7 @@
       <c r="K341" s="6"/>
       <c r="L341" s="7"/>
     </row>
-    <row r="342" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>12</v>
       </c>
@@ -12825,7 +12826,7 @@
       <c r="K342" s="6"/>
       <c r="L342" s="7"/>
     </row>
-    <row r="343" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>12</v>
       </c>
@@ -12857,7 +12858,7 @@
       <c r="K343" s="6"/>
       <c r="L343" s="7"/>
     </row>
-    <row r="344" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>91</v>
       </c>
@@ -12889,7 +12890,7 @@
       <c r="K344" s="6"/>
       <c r="L344" s="7"/>
     </row>
-    <row r="345" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>91</v>
       </c>
@@ -12921,7 +12922,7 @@
       <c r="K345" s="6"/>
       <c r="L345" s="7"/>
     </row>
-    <row r="346" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>91</v>
       </c>
@@ -12953,7 +12954,7 @@
       <c r="K346" s="6"/>
       <c r="L346" s="7"/>
     </row>
-    <row r="347" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>91</v>
       </c>
@@ -12985,7 +12986,7 @@
       <c r="K347" s="6"/>
       <c r="L347" s="7"/>
     </row>
-    <row r="348" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>91</v>
       </c>
@@ -13017,7 +13018,7 @@
       <c r="K348" s="6"/>
       <c r="L348" s="7"/>
     </row>
-    <row r="349" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>91</v>
       </c>
@@ -13049,7 +13050,7 @@
       <c r="K349" s="6"/>
       <c r="L349" s="7"/>
     </row>
-    <row r="350" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>91</v>
       </c>
@@ -13081,7 +13082,7 @@
       <c r="K350" s="6"/>
       <c r="L350" s="7"/>
     </row>
-    <row r="351" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>91</v>
       </c>
@@ -13113,7 +13114,7 @@
       <c r="K351" s="6"/>
       <c r="L351" s="7"/>
     </row>
-    <row r="352" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>91</v>
       </c>
@@ -13145,7 +13146,7 @@
       <c r="K352" s="6"/>
       <c r="L352" s="7"/>
     </row>
-    <row r="353" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>91</v>
       </c>
@@ -13177,7 +13178,7 @@
       <c r="K353" s="6"/>
       <c r="L353" s="7"/>
     </row>
-    <row r="354" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>91</v>
       </c>
@@ -13209,7 +13210,7 @@
       <c r="K354" s="6"/>
       <c r="L354" s="7"/>
     </row>
-    <row r="355" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>91</v>
       </c>
@@ -13241,7 +13242,7 @@
       <c r="K355" s="6"/>
       <c r="L355" s="7"/>
     </row>
-    <row r="356" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>91</v>
       </c>
@@ -13273,7 +13274,7 @@
       <c r="K356" s="6"/>
       <c r="L356" s="7"/>
     </row>
-    <row r="357" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>91</v>
       </c>
@@ -13305,7 +13306,7 @@
       <c r="K357" s="6"/>
       <c r="L357" s="7"/>
     </row>
-    <row r="358" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>91</v>
       </c>
@@ -13337,7 +13338,7 @@
       <c r="K358" s="6"/>
       <c r="L358" s="13"/>
     </row>
-    <row r="359" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>22</v>
       </c>
@@ -13369,7 +13370,7 @@
       <c r="K359" s="6"/>
       <c r="L359" s="7"/>
     </row>
-    <row r="360" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>22</v>
       </c>
@@ -13401,7 +13402,7 @@
       <c r="K360" s="6"/>
       <c r="L360" s="7"/>
     </row>
-    <row r="361" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>22</v>
       </c>
@@ -13433,7 +13434,7 @@
       <c r="K361" s="6"/>
       <c r="L361" s="7"/>
     </row>
-    <row r="362" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>22</v>
       </c>
@@ -13465,7 +13466,7 @@
       <c r="K362" s="6"/>
       <c r="L362" s="7"/>
     </row>
-    <row r="363" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>22</v>
       </c>
@@ -13497,7 +13498,7 @@
       <c r="K363" s="6"/>
       <c r="L363" s="7"/>
     </row>
-    <row r="364" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>22</v>
       </c>
@@ -13529,7 +13530,7 @@
       <c r="K364" s="6"/>
       <c r="L364" s="7"/>
     </row>
-    <row r="365" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>22</v>
       </c>
@@ -13561,7 +13562,7 @@
       <c r="K365" s="6"/>
       <c r="L365" s="7"/>
     </row>
-    <row r="366" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>22</v>
       </c>
@@ -13593,7 +13594,7 @@
       <c r="K366" s="6"/>
       <c r="L366" s="7"/>
     </row>
-    <row r="367" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>22</v>
       </c>
@@ -13625,7 +13626,7 @@
       <c r="K367" s="6"/>
       <c r="L367" s="7"/>
     </row>
-    <row r="368" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>22</v>
       </c>
@@ -13657,7 +13658,7 @@
       <c r="K368" s="6"/>
       <c r="L368" s="7"/>
     </row>
-    <row r="369" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>22</v>
       </c>
@@ -13689,7 +13690,7 @@
       <c r="K369" s="6"/>
       <c r="L369" s="7"/>
     </row>
-    <row r="370" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>22</v>
       </c>
@@ -13721,7 +13722,7 @@
       <c r="K370" s="6"/>
       <c r="L370" s="7"/>
     </row>
-    <row r="371" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>22</v>
       </c>
@@ -13753,7 +13754,7 @@
       <c r="K371" s="6"/>
       <c r="L371" s="7"/>
     </row>
-    <row r="372" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>22</v>
       </c>
@@ -13785,7 +13786,7 @@
       <c r="K372" s="6"/>
       <c r="L372" s="7"/>
     </row>
-    <row r="373" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>22</v>
       </c>
@@ -13817,7 +13818,7 @@
       <c r="K373" s="6"/>
       <c r="L373" s="7"/>
     </row>
-    <row r="374" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>22</v>
       </c>
@@ -13849,7 +13850,7 @@
       <c r="K374" s="6"/>
       <c r="L374" s="7"/>
     </row>
-    <row r="375" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>22</v>
       </c>
@@ -13881,7 +13882,7 @@
       <c r="K375" s="6"/>
       <c r="L375" s="7"/>
     </row>
-    <row r="376" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>22</v>
       </c>
@@ -13913,7 +13914,7 @@
       <c r="K376" s="6"/>
       <c r="L376" s="7"/>
     </row>
-    <row r="377" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>22</v>
       </c>
@@ -13945,7 +13946,7 @@
       <c r="K377" s="6"/>
       <c r="L377" s="7"/>
     </row>
-    <row r="378" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>22</v>
       </c>
@@ -13977,7 +13978,7 @@
       <c r="K378" s="6"/>
       <c r="L378" s="7"/>
     </row>
-    <row r="379" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>22</v>
       </c>
@@ -14009,7 +14010,7 @@
       <c r="K379" s="6"/>
       <c r="L379" s="7"/>
     </row>
-    <row r="380" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>22</v>
       </c>
@@ -14041,7 +14042,7 @@
       <c r="K380" s="6"/>
       <c r="L380" s="7"/>
     </row>
-    <row r="381" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>22</v>
       </c>
@@ -14073,7 +14074,7 @@
       <c r="K381" s="6"/>
       <c r="L381" s="7"/>
     </row>
-    <row r="382" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>22</v>
       </c>
@@ -14105,7 +14106,7 @@
       <c r="K382" s="6"/>
       <c r="L382" s="7"/>
     </row>
-    <row r="383" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>213</v>
       </c>
@@ -14137,7 +14138,7 @@
       <c r="K383" s="6"/>
       <c r="L383" s="7"/>
     </row>
-    <row r="384" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>213</v>
       </c>
@@ -14169,7 +14170,7 @@
       <c r="K384" s="6"/>
       <c r="L384" s="7"/>
     </row>
-    <row r="385" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>213</v>
       </c>
@@ -14201,7 +14202,7 @@
       <c r="K385" s="6"/>
       <c r="L385" s="7"/>
     </row>
-    <row r="386" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>213</v>
       </c>
@@ -14233,7 +14234,7 @@
       <c r="K386" s="6"/>
       <c r="L386" s="7"/>
     </row>
-    <row r="387" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>213</v>
       </c>
@@ -14265,7 +14266,7 @@
       <c r="K387" s="6"/>
       <c r="L387" s="7"/>
     </row>
-    <row r="388" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>213</v>
       </c>
@@ -14297,7 +14298,7 @@
       <c r="K388" s="6"/>
       <c r="L388" s="7"/>
     </row>
-    <row r="389" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>213</v>
       </c>
@@ -14329,7 +14330,7 @@
       <c r="K389" s="6"/>
       <c r="L389" s="7"/>
     </row>
-    <row r="390" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>213</v>
       </c>
@@ -14361,7 +14362,7 @@
       <c r="K390" s="6"/>
       <c r="L390" s="7"/>
     </row>
-    <row r="391" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>213</v>
       </c>
@@ -14393,7 +14394,7 @@
       <c r="K391" s="6"/>
       <c r="L391" s="7"/>
     </row>
-    <row r="392" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>213</v>
       </c>
@@ -14425,7 +14426,7 @@
       <c r="K392" s="6"/>
       <c r="L392" s="7"/>
     </row>
-    <row r="393" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>213</v>
       </c>
@@ -14457,7 +14458,7 @@
       <c r="K393" s="6"/>
       <c r="L393" s="7"/>
     </row>
-    <row r="394" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>213</v>
       </c>
@@ -14489,7 +14490,7 @@
       <c r="K394" s="6"/>
       <c r="L394" s="7"/>
     </row>
-    <row r="395" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>213</v>
       </c>
@@ -14521,7 +14522,7 @@
       <c r="K395" s="6"/>
       <c r="L395" s="7"/>
     </row>
-    <row r="396" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>213</v>
       </c>
@@ -14553,7 +14554,7 @@
       <c r="K396" s="6"/>
       <c r="L396" s="7"/>
     </row>
-    <row r="397" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>213</v>
       </c>
@@ -14585,7 +14586,7 @@
       <c r="K397" s="6"/>
       <c r="L397" s="7"/>
     </row>
-    <row r="398" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>213</v>
       </c>
@@ -14617,7 +14618,7 @@
       <c r="K398" s="6"/>
       <c r="L398" s="7"/>
     </row>
-    <row r="399" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>213</v>
       </c>
@@ -14649,7 +14650,7 @@
       <c r="K399" s="6"/>
       <c r="L399" s="7"/>
     </row>
-    <row r="400" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>213</v>
       </c>
@@ -14681,7 +14682,7 @@
       <c r="K400" s="6"/>
       <c r="L400" s="7"/>
     </row>
-    <row r="401" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>213</v>
       </c>
@@ -14713,7 +14714,7 @@
       <c r="K401" s="6"/>
       <c r="L401" s="7"/>
     </row>
-    <row r="402" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>213</v>
       </c>
@@ -14745,7 +14746,7 @@
       <c r="K402" s="6"/>
       <c r="L402" s="7"/>
     </row>
-    <row r="403" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>213</v>
       </c>
@@ -14777,7 +14778,7 @@
       <c r="K403" s="6"/>
       <c r="L403" s="7"/>
     </row>
-    <row r="404" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>213</v>
       </c>
